--- a/database/Akaze_knn.xlsx
+++ b/database/Akaze_knn.xlsx
@@ -117,10 +117,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -146,8 +154,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P342"/>
+  <dimension ref="A1:Q342"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="C17" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15:Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -460,7 +469,7 @@
     <col min="6" max="6" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -468,7 +477,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -479,7 +488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -490,7 +499,7 @@
         <v>0.357000112533569</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -501,7 +510,7 @@
         <v>0.38899993896484297</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -512,7 +521,7 @@
         <v>0.35800004005432101</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -523,7 +532,7 @@
         <v>0.382999897003173</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -534,7 +543,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -545,7 +554,7 @@
         <v>1.4749999046325599</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -556,7 +565,7 @@
         <v>0.81900000572204501</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -567,7 +576,7 @@
         <v>0.14700007438659601</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -578,7 +587,7 @@
         <v>0.47399997711181602</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -589,7 +598,7 @@
         <v>0.11599993705749501</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -600,7 +609,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -643,8 +652,11 @@
       <c r="P14">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="Q14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -687,8 +699,11 @@
       <c r="P15">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="Q15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -731,8 +746,11 @@
       <c r="P16">
         <v>88</v>
       </c>
-    </row>
-    <row r="17" spans="1:16">
+      <c r="Q16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -775,8 +793,11 @@
       <c r="P17">
         <v>93</v>
       </c>
-    </row>
-    <row r="18" spans="1:16">
+      <c r="Q17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -819,8 +840,11 @@
       <c r="P18">
         <v>97</v>
       </c>
-    </row>
-    <row r="19" spans="1:16">
+      <c r="Q18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -863,8 +887,11 @@
       <c r="P19">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:16">
+      <c r="Q19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -907,8 +934,11 @@
       <c r="P20">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:16">
+      <c r="Q20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -951,8 +981,11 @@
       <c r="P21">
         <v>34</v>
       </c>
-    </row>
-    <row r="22" spans="1:16">
+      <c r="Q21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -995,8 +1028,11 @@
       <c r="P22">
         <v>40</v>
       </c>
-    </row>
-    <row r="23" spans="1:16">
+      <c r="Q22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -1039,8 +1075,11 @@
       <c r="P23">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:16">
+      <c r="Q23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -1083,8 +1122,11 @@
       <c r="P24">
         <v>39</v>
       </c>
-    </row>
-    <row r="25" spans="1:16">
+      <c r="Q24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -1095,7 +1137,7 @@
         <v>0.35300016403198198</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:17">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -1106,7 +1148,7 @@
         <v>0.39199995994567799</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:17">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -1117,7 +1159,7 @@
         <v>0.34400010108947698</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:17">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -1127,8 +1169,41 @@
       <c r="C28">
         <v>0.404000043869018</v>
       </c>
-    </row>
-    <row r="29" spans="1:16">
+      <c r="E28" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="O28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -1138,8 +1213,49 @@
       <c r="C29">
         <v>0.125</v>
       </c>
-    </row>
-    <row r="30" spans="1:16">
+      <c r="E29" s="1">
+        <f>AVERAGE(E30:E59)</f>
+        <v>0.46009999116261718</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" ref="F29:I29" si="0">AVERAGE(F30:F59)</f>
+        <v>0.57993332544962473</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" si="0"/>
+        <v>0.50679997603098459</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" si="0"/>
+        <v>0.50263333320617598</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="0"/>
+        <v>0.54539999961852914</v>
+      </c>
+      <c r="J29" s="1">
+        <f t="shared" ref="J29" si="1">AVERAGE(J30:J59)</f>
+        <v>0.54116666316985973</v>
+      </c>
+      <c r="K29" s="1">
+        <f t="shared" ref="K29" si="2">AVERAGE(K30:K59)</f>
+        <v>0.52743333975473905</v>
+      </c>
+      <c r="L29" s="1">
+        <f t="shared" ref="L29:M29" si="3">AVERAGE(L30:L59)</f>
+        <v>0.516600020726521</v>
+      </c>
+      <c r="M29" s="1">
+        <f t="shared" si="3"/>
+        <v>0.49679998556772792</v>
+      </c>
+      <c r="N29" s="1">
+        <f t="shared" ref="N29" si="4">AVERAGE(N30:N59)</f>
+        <v>0.5222666740417472</v>
+      </c>
+      <c r="O29" s="1"/>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -1149,8 +1265,38 @@
       <c r="C30">
         <v>1.4709999561309799</v>
       </c>
-    </row>
-    <row r="31" spans="1:16">
+      <c r="E30">
+        <v>0.357000112533569</v>
+      </c>
+      <c r="F30">
+        <v>0.35100007057189903</v>
+      </c>
+      <c r="G30">
+        <v>0.354999780654907</v>
+      </c>
+      <c r="H30">
+        <v>0.36299991607665999</v>
+      </c>
+      <c r="I30">
+        <v>0.347000122070312</v>
+      </c>
+      <c r="J30">
+        <v>0.36599993705749501</v>
+      </c>
+      <c r="K30">
+        <v>0.45799994468688898</v>
+      </c>
+      <c r="L30">
+        <v>0.37000012397766102</v>
+      </c>
+      <c r="M30">
+        <v>0.36599993705749501</v>
+      </c>
+      <c r="N30">
+        <v>0.35800004005432101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -1160,8 +1306,38 @@
       <c r="C31">
         <v>0.77999997138976995</v>
       </c>
-    </row>
-    <row r="32" spans="1:16">
+      <c r="E31">
+        <v>0.38899993896484297</v>
+      </c>
+      <c r="F31">
+        <v>1.3840000629425</v>
+      </c>
+      <c r="G31">
+        <v>0.40100002288818298</v>
+      </c>
+      <c r="H31">
+        <v>0.39499998092651301</v>
+      </c>
+      <c r="I31">
+        <v>0.40000009536743097</v>
+      </c>
+      <c r="J31">
+        <v>0.47000002861022899</v>
+      </c>
+      <c r="K31">
+        <v>0.40499997138977001</v>
+      </c>
+      <c r="L31">
+        <v>0.40499997138977001</v>
+      </c>
+      <c r="M31">
+        <v>0.40499997138977001</v>
+      </c>
+      <c r="N31">
+        <v>0.50399994850158603</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -1171,8 +1347,38 @@
       <c r="C32">
         <v>0.12999987602233801</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="E32">
+        <v>0.35800004005432101</v>
+      </c>
+      <c r="F32">
+        <v>0.57999992370605402</v>
+      </c>
+      <c r="G32">
+        <v>0.37700009346008301</v>
+      </c>
+      <c r="H32">
+        <v>0.34800004959106401</v>
+      </c>
+      <c r="I32">
+        <v>0.47300004959106401</v>
+      </c>
+      <c r="J32">
+        <v>0.34500002861022899</v>
+      </c>
+      <c r="K32">
+        <v>0.35799980163574202</v>
+      </c>
+      <c r="L32">
+        <v>0.37199997901916498</v>
+      </c>
+      <c r="M32">
+        <v>0.36599993705749501</v>
+      </c>
+      <c r="N32">
+        <v>0.45499992370605402</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -1182,8 +1388,38 @@
       <c r="C33">
         <v>0.48299980163574202</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="E33">
+        <v>0.382999897003173</v>
+      </c>
+      <c r="F33">
+        <v>0.558000087738037</v>
+      </c>
+      <c r="G33">
+        <v>0.42599987983703602</v>
+      </c>
+      <c r="H33">
+        <v>0.39199995994567799</v>
+      </c>
+      <c r="I33">
+        <v>0.52099990844726496</v>
+      </c>
+      <c r="J33">
+        <v>0.38300013542175199</v>
+      </c>
+      <c r="K33">
+        <v>0.40599989891052202</v>
+      </c>
+      <c r="L33">
+        <v>0.39199995994567799</v>
+      </c>
+      <c r="M33">
+        <v>0.41399979591369601</v>
+      </c>
+      <c r="N33">
+        <v>0.48799991607665999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -1193,8 +1429,38 @@
       <c r="C34">
         <v>0.10899996757507301</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="E34">
+        <v>0.125</v>
+      </c>
+      <c r="F34">
+        <v>0.18600010871887199</v>
+      </c>
+      <c r="G34">
+        <v>0.123000144958496</v>
+      </c>
+      <c r="H34">
+        <v>0.12299990653991601</v>
+      </c>
+      <c r="I34">
+        <v>0.17299985885620101</v>
+      </c>
+      <c r="J34">
+        <v>0.136000156402587</v>
+      </c>
+      <c r="K34">
+        <v>0.126000165939331</v>
+      </c>
+      <c r="L34">
+        <v>0.115000009536743</v>
+      </c>
+      <c r="M34">
+        <v>0.130000114440917</v>
+      </c>
+      <c r="N34">
+        <v>0.15599989891052199</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -1204,8 +1470,38 @@
       <c r="C35" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="E35">
+        <v>1.4749999046325599</v>
+      </c>
+      <c r="F35">
+        <v>2.1119999885559002</v>
+      </c>
+      <c r="G35">
+        <v>1.50999999046325</v>
+      </c>
+      <c r="H35">
+        <v>1.95099997520446</v>
+      </c>
+      <c r="I35">
+        <v>2.0199999809265101</v>
+      </c>
+      <c r="J35">
+        <v>1.50999999046325</v>
+      </c>
+      <c r="K35">
+        <v>1.47699999809265</v>
+      </c>
+      <c r="L35">
+        <v>1.46900010108947</v>
+      </c>
+      <c r="M35">
+        <v>1.4939999580383301</v>
+      </c>
+      <c r="N35">
+        <v>1.92499995231628</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -1215,8 +1511,38 @@
       <c r="C36">
         <v>0.35100007057189903</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="E36">
+        <v>0.81900000572204501</v>
+      </c>
+      <c r="F36">
+        <v>0.89699983596801702</v>
+      </c>
+      <c r="G36">
+        <v>0.80799984931945801</v>
+      </c>
+      <c r="H36">
+        <v>1.04900002479553</v>
+      </c>
+      <c r="I36">
+        <v>1.0829999446868801</v>
+      </c>
+      <c r="J36">
+        <v>1.0460000038146899</v>
+      </c>
+      <c r="K36">
+        <v>0.87100005149841297</v>
+      </c>
+      <c r="L36">
+        <v>0.80599999427795399</v>
+      </c>
+      <c r="M36">
+        <v>1.09899997711181</v>
+      </c>
+      <c r="N36">
+        <v>0.79299998283386197</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -1226,8 +1552,38 @@
       <c r="C37">
         <v>1.3840000629425</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="E37">
+        <v>0.14700007438659601</v>
+      </c>
+      <c r="F37">
+        <v>0.12800002098083399</v>
+      </c>
+      <c r="G37">
+        <v>0.13700008392333901</v>
+      </c>
+      <c r="H37">
+        <v>0.14100003242492601</v>
+      </c>
+      <c r="I37">
+        <v>0.125</v>
+      </c>
+      <c r="J37">
+        <v>0.17700004577636699</v>
+      </c>
+      <c r="K37">
+        <v>0.13100004196166901</v>
+      </c>
+      <c r="L37">
+        <v>0.132999897003173</v>
+      </c>
+      <c r="M37">
+        <v>0.18000006675720201</v>
+      </c>
+      <c r="N37">
+        <v>0.12700009346008301</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -1237,8 +1593,38 @@
       <c r="C38">
         <v>0.57999992370605402</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="E38">
+        <v>0.47399997711181602</v>
+      </c>
+      <c r="F38">
+        <v>0.46799993515014598</v>
+      </c>
+      <c r="G38">
+        <v>0.49399995803833002</v>
+      </c>
+      <c r="H38">
+        <v>0.64400005340576105</v>
+      </c>
+      <c r="I38">
+        <v>0.48500013351440402</v>
+      </c>
+      <c r="J38">
+        <v>0.64099979400634699</v>
+      </c>
+      <c r="K38">
+        <v>0.49499988555908198</v>
+      </c>
+      <c r="L38">
+        <v>0.49799990653991699</v>
+      </c>
+      <c r="M38">
+        <v>0.700999975204467</v>
+      </c>
+      <c r="N38">
+        <v>0.47900009155273399</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -1248,8 +1634,38 @@
       <c r="C39">
         <v>0.558000087738037</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="E39">
+        <v>0.11599993705749501</v>
+      </c>
+      <c r="F39">
+        <v>9.4000101089477497E-2</v>
+      </c>
+      <c r="G39">
+        <v>0.125</v>
+      </c>
+      <c r="H39">
+        <v>0.125</v>
+      </c>
+      <c r="I39">
+        <v>0.10899996757507301</v>
+      </c>
+      <c r="J39">
+        <v>0.125</v>
+      </c>
+      <c r="K39">
+        <v>0.111000061035156</v>
+      </c>
+      <c r="L39">
+        <v>0.10899996757507301</v>
+      </c>
+      <c r="M39">
+        <v>0.10899996757507301</v>
+      </c>
+      <c r="N39">
+        <v>9.3999862670898396E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -1259,8 +1675,38 @@
       <c r="C40">
         <v>0.18600010871887199</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="E40">
+        <v>0.35300016403198198</v>
+      </c>
+      <c r="F40">
+        <v>0.34400010108947698</v>
+      </c>
+      <c r="G40">
+        <v>0.56199979782104403</v>
+      </c>
+      <c r="H40">
+        <v>0.34500002861022899</v>
+      </c>
+      <c r="I40">
+        <v>0.51600003242492598</v>
+      </c>
+      <c r="J40">
+        <v>0.34500002861022899</v>
+      </c>
+      <c r="K40">
+        <v>0.34300017356872498</v>
+      </c>
+      <c r="L40">
+        <v>0.50200009346008301</v>
+      </c>
+      <c r="M40">
+        <v>0.36199998855590798</v>
+      </c>
+      <c r="N40">
+        <v>0.355000019073486</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -1270,8 +1716,38 @@
       <c r="C41">
         <v>2.1119999885559002</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="E41">
+        <v>0.39199995994567799</v>
+      </c>
+      <c r="F41">
+        <v>0.41100001335143999</v>
+      </c>
+      <c r="G41">
+        <v>0.41000008583068798</v>
+      </c>
+      <c r="H41">
+        <v>0.39700007438659601</v>
+      </c>
+      <c r="I41">
+        <v>0.55399990081787098</v>
+      </c>
+      <c r="J41">
+        <v>0.39899992942809998</v>
+      </c>
+      <c r="K41">
+        <v>0.396000146865844</v>
+      </c>
+      <c r="L41">
+        <v>0.59000015258788996</v>
+      </c>
+      <c r="M41">
+        <v>0.41100001335143999</v>
+      </c>
+      <c r="N41">
+        <v>0.39300012588500899</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -1281,8 +1757,38 @@
       <c r="C42">
         <v>0.89699983596801702</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="E42">
+        <v>0.34400010108947698</v>
+      </c>
+      <c r="F42">
+        <v>0.46700000762939398</v>
+      </c>
+      <c r="G42">
+        <v>0.36699986457824701</v>
+      </c>
+      <c r="H42">
+        <v>0.36000013351440402</v>
+      </c>
+      <c r="I42">
+        <v>0.40700006484985302</v>
+      </c>
+      <c r="J42">
+        <v>0.36300015449523898</v>
+      </c>
+      <c r="K42">
+        <v>0.48699998855590798</v>
+      </c>
+      <c r="L42">
+        <v>0.375</v>
+      </c>
+      <c r="M42">
+        <v>0.36800003051757801</v>
+      </c>
+      <c r="N42">
+        <v>0.35999989509582497</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -1292,8 +1798,38 @@
       <c r="C43">
         <v>0.12800002098083399</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="E43">
+        <v>0.404000043869018</v>
+      </c>
+      <c r="F43">
+        <v>0.50399994850158603</v>
+      </c>
+      <c r="G43">
+        <v>0.394000053405761</v>
+      </c>
+      <c r="H43">
+        <v>0.40399980545043901</v>
+      </c>
+      <c r="I43">
+        <v>0.40899991989135698</v>
+      </c>
+      <c r="J43">
+        <v>0.51800012588500899</v>
+      </c>
+      <c r="K43">
+        <v>0.511000156402587</v>
+      </c>
+      <c r="L43">
+        <v>0.39499998092651301</v>
+      </c>
+      <c r="M43">
+        <v>0.39000010490417403</v>
+      </c>
+      <c r="N43">
+        <v>0.37999987602233798</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" t="s">
         <v>12</v>
       </c>
@@ -1303,8 +1839,38 @@
       <c r="C44">
         <v>0.46799993515014598</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="E44">
+        <v>0.125</v>
+      </c>
+      <c r="F44">
+        <v>0.15700006484985299</v>
+      </c>
+      <c r="G44">
+        <v>0.134999990463256</v>
+      </c>
+      <c r="H44">
+        <v>0.14199995994567799</v>
+      </c>
+      <c r="I44">
+        <v>0.13099980354308999</v>
+      </c>
+      <c r="J44">
+        <v>0.171999931335449</v>
+      </c>
+      <c r="K44">
+        <v>0.187000036239624</v>
+      </c>
+      <c r="L44">
+        <v>0.12599992752075101</v>
+      </c>
+      <c r="M44">
+        <v>0.13999986648559501</v>
+      </c>
+      <c r="N44">
+        <v>0.13800001144409099</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -1314,8 +1880,38 @@
       <c r="C45">
         <v>9.4000101089477497E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="E45">
+        <v>1.4709999561309799</v>
+      </c>
+      <c r="F45">
+        <v>2.0430002212524401</v>
+      </c>
+      <c r="G45">
+        <v>1.6119999885559</v>
+      </c>
+      <c r="H45">
+        <v>1.46000003814697</v>
+      </c>
+      <c r="I45">
+        <v>1.48200011253356</v>
+      </c>
+      <c r="J45">
+        <v>1.99499988555908</v>
+      </c>
+      <c r="K45">
+        <v>2.09800004959106</v>
+      </c>
+      <c r="L45">
+        <v>1.48600006103515</v>
+      </c>
+      <c r="M45">
+        <v>1.4580001831054601</v>
+      </c>
+      <c r="N45">
+        <v>2.0150001049041699</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46" t="s">
         <v>1</v>
       </c>
@@ -1325,8 +1921,38 @@
       <c r="C46" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="E46">
+        <v>0.77999997138976995</v>
+      </c>
+      <c r="F46">
+        <v>1.08399987220764</v>
+      </c>
+      <c r="G46">
+        <v>0.787999868392944</v>
+      </c>
+      <c r="H46">
+        <v>0.79500007629394498</v>
+      </c>
+      <c r="I46">
+        <v>0.79799985885620095</v>
+      </c>
+      <c r="J46">
+        <v>1.12000012397766</v>
+      </c>
+      <c r="K46">
+        <v>1.1099998950958201</v>
+      </c>
+      <c r="L46">
+        <v>0.86000013351440396</v>
+      </c>
+      <c r="M46">
+        <v>0.81399989128112704</v>
+      </c>
+      <c r="N46">
+        <v>1.06799983978271</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -1336,8 +1962,38 @@
       <c r="C47">
         <v>0.34400010108947698</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="E47">
+        <v>0.12999987602233801</v>
+      </c>
+      <c r="F47">
+        <v>0.125</v>
+      </c>
+      <c r="G47">
+        <v>0.125</v>
+      </c>
+      <c r="H47">
+        <v>0.14100003242492601</v>
+      </c>
+      <c r="I47">
+        <v>0.109999895095825</v>
+      </c>
+      <c r="J47">
+        <v>0.15599989891052199</v>
+      </c>
+      <c r="K47">
+        <v>0.125</v>
+      </c>
+      <c r="L47">
+        <v>0.12700009346008301</v>
+      </c>
+      <c r="M47">
+        <v>0.125</v>
+      </c>
+      <c r="N47">
+        <v>0.17000007629394501</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -1347,8 +2003,38 @@
       <c r="C48">
         <v>0.41100001335143999</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="E48">
+        <v>0.48299980163574202</v>
+      </c>
+      <c r="F48">
+        <v>0.47799992561340299</v>
+      </c>
+      <c r="G48">
+        <v>0.48399996757507302</v>
+      </c>
+      <c r="H48">
+        <v>0.50699996948242099</v>
+      </c>
+      <c r="I48">
+        <v>0.47599983215331998</v>
+      </c>
+      <c r="J48">
+        <v>0.50099992752075195</v>
+      </c>
+      <c r="K48">
+        <v>0.50699996948242099</v>
+      </c>
+      <c r="L48">
+        <v>0.49699997901916498</v>
+      </c>
+      <c r="M48">
+        <v>0.50600004196166903</v>
+      </c>
+      <c r="N48">
+        <v>0.67000007629394498</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -1358,8 +2044,38 @@
       <c r="C49">
         <v>0.46700000762939398</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="E49">
+        <v>0.10899996757507301</v>
+      </c>
+      <c r="F49">
+        <v>0.109999895095825</v>
+      </c>
+      <c r="G49">
+        <v>0.109999895095825</v>
+      </c>
+      <c r="H49">
+        <v>9.4000101089477497E-2</v>
+      </c>
+      <c r="I49">
+        <v>9.4000101089477497E-2</v>
+      </c>
+      <c r="J49">
+        <v>0.10899996757507301</v>
+      </c>
+      <c r="K49">
+        <v>0.11000013351440401</v>
+      </c>
+      <c r="L49">
+        <v>0.10899996757507301</v>
+      </c>
+      <c r="M49">
+        <v>0.109999895095825</v>
+      </c>
+      <c r="N49">
+        <v>9.5000028610229395E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -1369,8 +2085,38 @@
       <c r="C50">
         <v>0.50399994850158603</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="E50">
+        <v>0.36199998855590798</v>
+      </c>
+      <c r="F50">
+        <v>0.35800004005432101</v>
+      </c>
+      <c r="G50">
+        <v>0.35999989509582497</v>
+      </c>
+      <c r="H50">
+        <v>0.46499991416931102</v>
+      </c>
+      <c r="I50">
+        <v>0.35299992561340299</v>
+      </c>
+      <c r="J50">
+        <v>0.45399999618530201</v>
+      </c>
+      <c r="K50">
+        <v>0.345999956130981</v>
+      </c>
+      <c r="L50">
+        <v>0.36300015449523898</v>
+      </c>
+      <c r="M50">
+        <v>0.47300004959106401</v>
+      </c>
+      <c r="N50">
+        <v>0.36400008201599099</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -1380,8 +2126,38 @@
       <c r="C51">
         <v>0.15700006484985299</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="E51">
+        <v>0.37599992752075101</v>
+      </c>
+      <c r="F51">
+        <v>0.40799999237060502</v>
+      </c>
+      <c r="G51">
+        <v>0.54600000381469704</v>
+      </c>
+      <c r="H51">
+        <v>0.53500008583068803</v>
+      </c>
+      <c r="I51">
+        <v>0.40799999237060502</v>
+      </c>
+      <c r="J51">
+        <v>0.52699995040893499</v>
+      </c>
+      <c r="K51">
+        <v>0.395000219345092</v>
+      </c>
+      <c r="L51">
+        <v>0.39300012588500899</v>
+      </c>
+      <c r="M51">
+        <v>0.52899980545043901</v>
+      </c>
+      <c r="N51">
+        <v>0.39700007438659601</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -1391,8 +2167,38 @@
       <c r="C52">
         <v>2.0430002212524401</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="E52">
+        <v>0.355999946594238</v>
+      </c>
+      <c r="F52">
+        <v>0.37800002098083402</v>
+      </c>
+      <c r="G52">
+        <v>0.450999975204467</v>
+      </c>
+      <c r="H52">
+        <v>0.363999843597412</v>
+      </c>
+      <c r="I52">
+        <v>0.48300004005432101</v>
+      </c>
+      <c r="J52">
+        <v>0.470999956130981</v>
+      </c>
+      <c r="K52">
+        <v>0.34399986267089799</v>
+      </c>
+      <c r="L52">
+        <v>0.50199985504150302</v>
+      </c>
+      <c r="M52">
+        <v>0.34699988365173301</v>
+      </c>
+      <c r="N52">
+        <v>0.36199998855590798</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53" t="s">
         <v>10</v>
       </c>
@@ -1402,8 +2208,38 @@
       <c r="C53">
         <v>1.08399987220764</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="E53">
+        <v>0.37900018692016602</v>
+      </c>
+      <c r="F53">
+        <v>0.37699985504150302</v>
+      </c>
+      <c r="G53">
+        <v>0.50900006294250399</v>
+      </c>
+      <c r="H53">
+        <v>0.382999897003173</v>
+      </c>
+      <c r="I53">
+        <v>0.51999998092651301</v>
+      </c>
+      <c r="J53">
+        <v>0.59800004959106401</v>
+      </c>
+      <c r="K53">
+        <v>0.39800000190734802</v>
+      </c>
+      <c r="L53">
+        <v>0.50399994850158603</v>
+      </c>
+      <c r="M53">
+        <v>0.39899992942809998</v>
+      </c>
+      <c r="N53">
+        <v>0.41600012779235801</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54" t="s">
         <v>11</v>
       </c>
@@ -1413,8 +2249,38 @@
       <c r="C54">
         <v>0.125</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="E54">
+        <v>0.115000009536743</v>
+      </c>
+      <c r="F54">
+        <v>0.12699985504150299</v>
+      </c>
+      <c r="G54">
+        <v>0.14100003242492601</v>
+      </c>
+      <c r="H54">
+        <v>0.13599991798400801</v>
+      </c>
+      <c r="I54">
+        <v>0.171999931335449</v>
+      </c>
+      <c r="J54">
+        <v>0.177999973297119</v>
+      </c>
+      <c r="K54">
+        <v>0.12599992752075101</v>
+      </c>
+      <c r="L54">
+        <v>0.164000034332275</v>
+      </c>
+      <c r="M54">
+        <v>0.134999990463256</v>
+      </c>
+      <c r="N54">
+        <v>0.12400007247924801</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55" t="s">
         <v>12</v>
       </c>
@@ -1424,8 +2290,38 @@
       <c r="C55">
         <v>0.47799992561340299</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="E55">
+        <v>1.46800017356872</v>
+      </c>
+      <c r="F55">
+        <v>1.51799988746643</v>
+      </c>
+      <c r="G55">
+        <v>1.9079999923705999</v>
+      </c>
+      <c r="H55">
+        <v>1.4840002059936499</v>
+      </c>
+      <c r="I55">
+        <v>1.9490001201629601</v>
+      </c>
+      <c r="J55">
+        <v>1.4810001850128101</v>
+      </c>
+      <c r="K55">
+        <v>1.4629998207092201</v>
+      </c>
+      <c r="L55">
+        <v>2.0190000534057599</v>
+      </c>
+      <c r="M55">
+        <v>1.48300004005432</v>
+      </c>
+      <c r="N55">
+        <v>1.4750001430511399</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56" t="s">
         <v>13</v>
       </c>
@@ -1435,8 +2331,38 @@
       <c r="C56">
         <v>0.109999895095825</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="E56">
+        <v>0.78699994087219205</v>
+      </c>
+      <c r="F56">
+        <v>0.80700016021728505</v>
+      </c>
+      <c r="G56">
+        <v>0.78900003433227495</v>
+      </c>
+      <c r="H56">
+        <v>0.81299996376037598</v>
+      </c>
+      <c r="I56">
+        <v>1.0610001087188701</v>
+      </c>
+      <c r="J56">
+        <v>0.799000024795532</v>
+      </c>
+      <c r="K56">
+        <v>1.07699990272521</v>
+      </c>
+      <c r="L56">
+        <v>1.08000016212463</v>
+      </c>
+      <c r="M56">
+        <v>0.86500000953674305</v>
+      </c>
+      <c r="N56">
+        <v>0.79800009727478005</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57" t="s">
         <v>1</v>
       </c>
@@ -1446,8 +2372,38 @@
       <c r="C57" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="E57">
+        <v>0.134999990463256</v>
+      </c>
+      <c r="F57">
+        <v>0.17999982833862299</v>
+      </c>
+      <c r="G57">
+        <v>0.125</v>
+      </c>
+      <c r="H57">
+        <v>0.12700009346008301</v>
+      </c>
+      <c r="I57">
+        <v>0.125</v>
+      </c>
+      <c r="J57">
+        <v>0.13999986648559501</v>
+      </c>
+      <c r="K57">
+        <v>0.183000087738037</v>
+      </c>
+      <c r="L57">
+        <v>0.14100003242492601</v>
+      </c>
+      <c r="M57">
+        <v>0.13700008392333901</v>
+      </c>
+      <c r="N57">
+        <v>0.11599993705749501</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58" t="s">
         <v>4</v>
       </c>
@@ -1457,8 +2413,38 @@
       <c r="C58">
         <v>0.35800004005432101</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="E58">
+        <v>0.48499989509582497</v>
+      </c>
+      <c r="F58">
+        <v>0.65499997138976995</v>
+      </c>
+      <c r="G58">
+        <v>0.48799991607665999</v>
+      </c>
+      <c r="H58">
+        <v>0.48599982261657698</v>
+      </c>
+      <c r="I58">
+        <v>0.48400020599365201</v>
+      </c>
+      <c r="J58">
+        <v>0.60099983215331998</v>
+      </c>
+      <c r="K58">
+        <v>0.654000043869018</v>
+      </c>
+      <c r="L58">
+        <v>0.48699998855590798</v>
+      </c>
+      <c r="M58">
+        <v>0.48600006103515597</v>
+      </c>
+      <c r="N58">
+        <v>0.48399996757507302</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -1468,8 +2454,38 @@
       <c r="C59">
         <v>0.40799999237060502</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="E59">
+        <v>0.105999946594238</v>
+      </c>
+      <c r="F59">
+        <v>0.10899996757507301</v>
+      </c>
+      <c r="G59">
+        <v>0.144000053405761</v>
+      </c>
+      <c r="H59">
+        <v>0.11000013351440401</v>
+      </c>
+      <c r="I59">
+        <v>9.4000101089477497E-2</v>
+      </c>
+      <c r="J59">
+        <v>0.10899996757507301</v>
+      </c>
+      <c r="K59">
+        <v>0.125</v>
+      </c>
+      <c r="L59">
+        <v>0.10899996757507301</v>
+      </c>
+      <c r="M59">
+        <v>0.10199999809265101</v>
+      </c>
+      <c r="N59">
+        <v>0.10899996757507301</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -1480,7 +2496,7 @@
         <v>0.37800002098083402</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:14">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -1491,7 +2507,7 @@
         <v>0.37699985504150302</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:14">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -1502,7 +2518,7 @@
         <v>0.12699985504150299</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:14">
       <c r="A63" t="s">
         <v>9</v>
       </c>
@@ -1513,7 +2529,7 @@
         <v>1.51799988746643</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:14">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -4584,6 +5600,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/database/Akaze_knn.xlsx
+++ b/database/Akaze_knn.xlsx
@@ -12,6 +12,7 @@
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="akaze_bf_knn_add" localSheetId="0">Feuil1!$E$64:$G$129</definedName>
     <definedName name="akaze_knn_result" localSheetId="0">Feuil1!$A$2:$C$342</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
@@ -20,7 +21,15 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="akaze_knn_result" type="6" refreshedVersion="3" background="1" saveData="1">
+  <connection id="1" name="akaze_bf_knn_add" type="6" refreshedVersion="3" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Users\ACHAR\Documents\PFEE\database\akaze_bf_knn_add.csv">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" name="akaze_knn_result" type="6" refreshedVersion="3" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\Users\ACHAR\Documents\PFEE\database\akaze_knn_result.csv">
       <textFields count="3">
         <textField/>
@@ -33,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="32">
   <si>
     <t>AKAZE</t>
   </si>
@@ -112,6 +121,24 @@
   <si>
     <t>akaze_knn_result.csv</t>
   </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>new\condame_blurred.jpg</t>
+  </si>
+  <si>
+    <t>new\condame_lumino.jpg</t>
+  </si>
+  <si>
+    <t>new\likeblack_45.png</t>
+  </si>
+  <si>
+    <t>new\likeblack_cropped.jpg</t>
+  </si>
+  <si>
+    <t>new\memory_blurred.jpg</t>
+  </si>
 </sst>
 </file>
 
@@ -167,7 +194,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="akaze_knn_result" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="akaze_bf_knn_add" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="akaze_knn_result" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -457,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q342"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C17" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15:Q24"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -466,7 +497,9 @@
     <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -2528,6 +2561,9 @@
       <c r="C63">
         <v>1.51799988746643</v>
       </c>
+      <c r="E63" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="64" spans="1:14">
       <c r="A64" t="s">
@@ -2539,8 +2575,17 @@
       <c r="C64">
         <v>0.80700016021728505</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="E64" t="s">
+        <v>1</v>
+      </c>
+      <c r="F64" t="s">
+        <v>2</v>
+      </c>
+      <c r="G64" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
         <v>11</v>
       </c>
@@ -2550,8 +2595,17 @@
       <c r="C65">
         <v>0.17999982833862299</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="E65" t="s">
+        <v>27</v>
+      </c>
+      <c r="F65">
+        <v>5</v>
+      </c>
+      <c r="G65">
+        <v>6.2000036239624003E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" t="s">
         <v>12</v>
       </c>
@@ -2561,8 +2615,17 @@
       <c r="C66">
         <v>0.65499997138976995</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="E66" t="s">
+        <v>28</v>
+      </c>
+      <c r="F66">
+        <v>60</v>
+      </c>
+      <c r="G66">
+        <v>0.62599992752075195</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" t="s">
         <v>13</v>
       </c>
@@ -2572,8 +2635,17 @@
       <c r="C67">
         <v>0.10899996757507301</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="E67" t="s">
+        <v>29</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0.98099994659423795</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" t="s">
         <v>1</v>
       </c>
@@ -2583,8 +2655,17 @@
       <c r="C68" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="E68" t="s">
+        <v>30</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0.63199996948242099</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" t="s">
         <v>4</v>
       </c>
@@ -2594,8 +2675,17 @@
       <c r="C69">
         <v>0.354999780654907</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="E69" t="s">
+        <v>31</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0.10899996757507301</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" t="s">
         <v>5</v>
       </c>
@@ -2605,8 +2695,17 @@
       <c r="C70">
         <v>0.40100002288818298</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="E70" t="s">
+        <v>1</v>
+      </c>
+      <c r="F70" t="s">
+        <v>2</v>
+      </c>
+      <c r="G70" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -2616,8 +2715,17 @@
       <c r="C71">
         <v>0.37700009346008301</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="E71" t="s">
+        <v>27</v>
+      </c>
+      <c r="F71">
+        <v>6</v>
+      </c>
+      <c r="G71">
+        <v>0.110999822616577</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -2627,8 +2735,17 @@
       <c r="C72">
         <v>0.42599987983703602</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="E72" t="s">
+        <v>28</v>
+      </c>
+      <c r="F72">
+        <v>66</v>
+      </c>
+      <c r="G72">
+        <v>0.69099998474121005</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" t="s">
         <v>8</v>
       </c>
@@ -2638,8 +2755,17 @@
       <c r="C73">
         <v>0.123000144958496</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
+      <c r="E73" t="s">
+        <v>29</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0.65699982643127397</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" t="s">
         <v>9</v>
       </c>
@@ -2649,8 +2775,17 @@
       <c r="C74">
         <v>1.50999999046325</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
+      <c r="E74" t="s">
+        <v>30</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0.61400008201599099</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" t="s">
         <v>10</v>
       </c>
@@ -2660,8 +2795,17 @@
       <c r="C75">
         <v>0.80799984931945801</v>
       </c>
-    </row>
-    <row r="76" spans="1:3">
+      <c r="E75" t="s">
+        <v>31</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0.116999864578247</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" t="s">
         <v>11</v>
       </c>
@@ -2671,8 +2815,17 @@
       <c r="C76">
         <v>0.13700008392333901</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="E76" t="s">
+        <v>1</v>
+      </c>
+      <c r="F76" t="s">
+        <v>2</v>
+      </c>
+      <c r="G76" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" t="s">
         <v>12</v>
       </c>
@@ -2682,8 +2835,17 @@
       <c r="C77">
         <v>0.49399995803833002</v>
       </c>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="E77" t="s">
+        <v>27</v>
+      </c>
+      <c r="F77">
+        <v>7</v>
+      </c>
+      <c r="G77">
+        <v>9.4000101089477497E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" t="s">
         <v>13</v>
       </c>
@@ -2693,8 +2855,17 @@
       <c r="C78">
         <v>0.125</v>
       </c>
-    </row>
-    <row r="79" spans="1:3">
+      <c r="E78" t="s">
+        <v>28</v>
+      </c>
+      <c r="F78">
+        <v>71</v>
+      </c>
+      <c r="G78">
+        <v>0.950999975204467</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" t="s">
         <v>1</v>
       </c>
@@ -2704,8 +2875,17 @@
       <c r="C79" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="80" spans="1:3">
+      <c r="E79" t="s">
+        <v>29</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0.97399997711181596</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" t="s">
         <v>4</v>
       </c>
@@ -2715,8 +2895,17 @@
       <c r="C80">
         <v>0.56199979782104403</v>
       </c>
-    </row>
-    <row r="81" spans="1:3">
+      <c r="E80" t="s">
+        <v>30</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0.799000024795532</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" t="s">
         <v>5</v>
       </c>
@@ -2726,8 +2915,17 @@
       <c r="C81">
         <v>0.41000008583068798</v>
       </c>
-    </row>
-    <row r="82" spans="1:3">
+      <c r="E81" t="s">
+        <v>31</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0.105999946594238</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" t="s">
         <v>6</v>
       </c>
@@ -2737,8 +2935,17 @@
       <c r="C82">
         <v>0.36699986457824701</v>
       </c>
-    </row>
-    <row r="83" spans="1:3">
+      <c r="E82" t="s">
+        <v>1</v>
+      </c>
+      <c r="F82" t="s">
+        <v>2</v>
+      </c>
+      <c r="G82" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" t="s">
         <v>7</v>
       </c>
@@ -2748,8 +2955,17 @@
       <c r="C83">
         <v>0.394000053405761</v>
       </c>
-    </row>
-    <row r="84" spans="1:3">
+      <c r="E83" t="s">
+        <v>27</v>
+      </c>
+      <c r="F83">
+        <v>8</v>
+      </c>
+      <c r="G83">
+        <v>6.9000005722045898E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" t="s">
         <v>8</v>
       </c>
@@ -2759,8 +2975,17 @@
       <c r="C84">
         <v>0.134999990463256</v>
       </c>
-    </row>
-    <row r="85" spans="1:3">
+      <c r="E84" t="s">
+        <v>28</v>
+      </c>
+      <c r="F84">
+        <v>76</v>
+      </c>
+      <c r="G84">
+        <v>0.61000013351440396</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" t="s">
         <v>9</v>
       </c>
@@ -2770,8 +2995,17 @@
       <c r="C85">
         <v>1.6119999885559</v>
       </c>
-    </row>
-    <row r="86" spans="1:3">
+      <c r="E85" t="s">
+        <v>29</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0.61699986457824696</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" t="s">
         <v>10</v>
       </c>
@@ -2781,8 +3015,17 @@
       <c r="C86">
         <v>0.787999868392944</v>
       </c>
-    </row>
-    <row r="87" spans="1:3">
+      <c r="E86" t="s">
+        <v>30</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0.59299993515014604</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" t="s">
         <v>11</v>
       </c>
@@ -2792,8 +3035,17 @@
       <c r="C87">
         <v>0.125</v>
       </c>
-    </row>
-    <row r="88" spans="1:3">
+      <c r="E87" t="s">
+        <v>31</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0.11000013351440401</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" t="s">
         <v>12</v>
       </c>
@@ -2803,8 +3055,17 @@
       <c r="C88">
         <v>0.48399996757507302</v>
       </c>
-    </row>
-    <row r="89" spans="1:3">
+      <c r="E88" t="s">
+        <v>1</v>
+      </c>
+      <c r="F88" t="s">
+        <v>2</v>
+      </c>
+      <c r="G88" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" t="s">
         <v>13</v>
       </c>
@@ -2814,8 +3075,17 @@
       <c r="C89">
         <v>0.109999895095825</v>
       </c>
-    </row>
-    <row r="90" spans="1:3">
+      <c r="E89" t="s">
+        <v>27</v>
+      </c>
+      <c r="F89">
+        <v>10</v>
+      </c>
+      <c r="G89">
+        <v>9.8000049591064398E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" t="s">
         <v>1</v>
       </c>
@@ -2825,8 +3095,17 @@
       <c r="C90" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="91" spans="1:3">
+      <c r="E90" t="s">
+        <v>28</v>
+      </c>
+      <c r="F90">
+        <v>79</v>
+      </c>
+      <c r="G90">
+        <v>0.59699988365173295</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" t="s">
         <v>4</v>
       </c>
@@ -2836,8 +3115,17 @@
       <c r="C91">
         <v>0.35999989509582497</v>
       </c>
-    </row>
-    <row r="92" spans="1:3">
+      <c r="E91" t="s">
+        <v>29</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0.61400008201599099</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" t="s">
         <v>5</v>
       </c>
@@ -2847,8 +3135,17 @@
       <c r="C92">
         <v>0.54600000381469704</v>
       </c>
-    </row>
-    <row r="93" spans="1:3">
+      <c r="E92" t="s">
+        <v>30</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0.58699989318847601</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" t="s">
         <v>6</v>
       </c>
@@ -2858,8 +3155,17 @@
       <c r="C93">
         <v>0.450999975204467</v>
       </c>
-    </row>
-    <row r="94" spans="1:3">
+      <c r="E93" t="s">
+        <v>31</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0.111000061035156</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" t="s">
         <v>7</v>
       </c>
@@ -2869,8 +3175,17 @@
       <c r="C94">
         <v>0.50900006294250399</v>
       </c>
-    </row>
-    <row r="95" spans="1:3">
+      <c r="E94" t="s">
+        <v>1</v>
+      </c>
+      <c r="F94" t="s">
+        <v>2</v>
+      </c>
+      <c r="G94" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" t="s">
         <v>8</v>
       </c>
@@ -2880,8 +3195,17 @@
       <c r="C95">
         <v>0.14100003242492601</v>
       </c>
-    </row>
-    <row r="96" spans="1:3">
+      <c r="E95" t="s">
+        <v>27</v>
+      </c>
+      <c r="F95">
+        <v>11</v>
+      </c>
+      <c r="G95">
+        <v>6.9999933242797796E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" t="s">
         <v>9</v>
       </c>
@@ -2891,8 +3215,17 @@
       <c r="C96">
         <v>1.9079999923705999</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="E96" t="s">
+        <v>28</v>
+      </c>
+      <c r="F96">
+        <v>83</v>
+      </c>
+      <c r="G96">
+        <v>0.61299991607666005</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" t="s">
         <v>10</v>
       </c>
@@ -2902,8 +3235,17 @@
       <c r="C97">
         <v>0.78900003433227495</v>
       </c>
-    </row>
-    <row r="98" spans="1:3">
+      <c r="E97" t="s">
+        <v>29</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0.77800011634826605</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" t="s">
         <v>11</v>
       </c>
@@ -2913,8 +3255,17 @@
       <c r="C98">
         <v>0.125</v>
       </c>
-    </row>
-    <row r="99" spans="1:3">
+      <c r="E98" t="s">
+        <v>30</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>0.61299991607666005</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" t="s">
         <v>12</v>
       </c>
@@ -2924,8 +3275,17 @@
       <c r="C99">
         <v>0.48799991607665999</v>
       </c>
-    </row>
-    <row r="100" spans="1:3">
+      <c r="E99" t="s">
+        <v>31</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0.15599989891052199</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" t="s">
         <v>13</v>
       </c>
@@ -2935,8 +3295,17 @@
       <c r="C100">
         <v>0.144000053405761</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="E100" t="s">
+        <v>1</v>
+      </c>
+      <c r="F100" t="s">
+        <v>2</v>
+      </c>
+      <c r="G100" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" t="s">
         <v>1</v>
       </c>
@@ -2946,8 +3315,17 @@
       <c r="C101" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="1:3">
+      <c r="E101" t="s">
+        <v>27</v>
+      </c>
+      <c r="F101">
+        <v>13</v>
+      </c>
+      <c r="G101">
+        <v>7.8000068664550698E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" t="s">
         <v>4</v>
       </c>
@@ -2957,8 +3335,17 @@
       <c r="C102">
         <v>0.36299991607665999</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="E102" t="s">
+        <v>28</v>
+      </c>
+      <c r="F102">
+        <v>86</v>
+      </c>
+      <c r="G102">
+        <v>0.59999990463256803</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" t="s">
         <v>5</v>
       </c>
@@ -2968,8 +3355,17 @@
       <c r="C103">
         <v>0.39499998092651301</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="E103" t="s">
+        <v>29</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="G103">
+        <v>0.81700015068054199</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" t="s">
         <v>6</v>
       </c>
@@ -2979,8 +3375,17 @@
       <c r="C104">
         <v>0.34800004959106401</v>
       </c>
-    </row>
-    <row r="105" spans="1:3">
+      <c r="E104" t="s">
+        <v>30</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="G104">
+        <v>0.595999956130981</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105" t="s">
         <v>7</v>
       </c>
@@ -2990,8 +3395,17 @@
       <c r="C105">
         <v>0.39199995994567799</v>
       </c>
-    </row>
-    <row r="106" spans="1:3">
+      <c r="E105" t="s">
+        <v>31</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="G105">
+        <v>9.3999862670898396E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106" t="s">
         <v>8</v>
       </c>
@@ -3001,8 +3415,17 @@
       <c r="C106">
         <v>0.12299990653991601</v>
       </c>
-    </row>
-    <row r="107" spans="1:3">
+      <c r="E106" t="s">
+        <v>1</v>
+      </c>
+      <c r="F106" t="s">
+        <v>2</v>
+      </c>
+      <c r="G106" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107" t="s">
         <v>9</v>
       </c>
@@ -3012,8 +3435,17 @@
       <c r="C107">
         <v>1.95099997520446</v>
       </c>
-    </row>
-    <row r="108" spans="1:3">
+      <c r="E107" t="s">
+        <v>27</v>
+      </c>
+      <c r="F107">
+        <v>18</v>
+      </c>
+      <c r="G107">
+        <v>0.11000013351440401</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108" t="s">
         <v>10</v>
       </c>
@@ -3023,8 +3455,17 @@
       <c r="C108">
         <v>1.04900002479553</v>
       </c>
-    </row>
-    <row r="109" spans="1:3">
+      <c r="E108" t="s">
+        <v>28</v>
+      </c>
+      <c r="F108">
+        <v>88</v>
+      </c>
+      <c r="G108">
+        <v>0.95399999618530196</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109" t="s">
         <v>11</v>
       </c>
@@ -3034,8 +3475,17 @@
       <c r="C109">
         <v>0.14100003242492601</v>
       </c>
-    </row>
-    <row r="110" spans="1:3">
+      <c r="E109" t="s">
+        <v>29</v>
+      </c>
+      <c r="F109">
+        <v>3</v>
+      </c>
+      <c r="G109">
+        <v>0.64100003242492598</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110" t="s">
         <v>12</v>
       </c>
@@ -3045,8 +3495,17 @@
       <c r="C110">
         <v>0.64400005340576105</v>
       </c>
-    </row>
-    <row r="111" spans="1:3">
+      <c r="E110" t="s">
+        <v>30</v>
+      </c>
+      <c r="F110">
+        <v>4</v>
+      </c>
+      <c r="G110">
+        <v>0.60599994659423795</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111" t="s">
         <v>13</v>
       </c>
@@ -3056,8 +3515,17 @@
       <c r="C111">
         <v>0.125</v>
       </c>
-    </row>
-    <row r="112" spans="1:3">
+      <c r="E111" t="s">
+        <v>31</v>
+      </c>
+      <c r="F111">
+        <v>5</v>
+      </c>
+      <c r="G111">
+        <v>0.11199998855590799</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112" t="s">
         <v>1</v>
       </c>
@@ -3067,8 +3535,17 @@
       <c r="C112" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="113" spans="1:3">
+      <c r="E112" t="s">
+        <v>1</v>
+      </c>
+      <c r="F112" t="s">
+        <v>2</v>
+      </c>
+      <c r="G112" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
       <c r="A113" t="s">
         <v>4</v>
       </c>
@@ -3078,8 +3555,17 @@
       <c r="C113">
         <v>0.34500002861022899</v>
       </c>
-    </row>
-    <row r="114" spans="1:3">
+      <c r="E113" t="s">
+        <v>27</v>
+      </c>
+      <c r="F113">
+        <v>28</v>
+      </c>
+      <c r="G113">
+        <v>6.8000078201293904E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114" t="s">
         <v>5</v>
       </c>
@@ -3089,8 +3575,17 @@
       <c r="C114">
         <v>0.39700007438659601</v>
       </c>
-    </row>
-    <row r="115" spans="1:3">
+      <c r="E114" t="s">
+        <v>28</v>
+      </c>
+      <c r="F114">
+        <v>91</v>
+      </c>
+      <c r="G114">
+        <v>0.60199999809265103</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115" t="s">
         <v>6</v>
       </c>
@@ -3100,8 +3595,17 @@
       <c r="C115">
         <v>0.36000013351440402</v>
       </c>
-    </row>
-    <row r="116" spans="1:3">
+      <c r="E115" t="s">
+        <v>29</v>
+      </c>
+      <c r="F115">
+        <v>12</v>
+      </c>
+      <c r="G115">
+        <v>0.60899996757507302</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
       <c r="A116" t="s">
         <v>7</v>
       </c>
@@ -3111,8 +3615,17 @@
       <c r="C116">
         <v>0.40399980545043901</v>
       </c>
-    </row>
-    <row r="117" spans="1:3">
+      <c r="E116" t="s">
+        <v>30</v>
+      </c>
+      <c r="F116">
+        <v>12</v>
+      </c>
+      <c r="G116">
+        <v>0.61199998855590798</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
       <c r="A117" t="s">
         <v>8</v>
       </c>
@@ -3122,8 +3635,17 @@
       <c r="C117">
         <v>0.14199995994567799</v>
       </c>
-    </row>
-    <row r="118" spans="1:3">
+      <c r="E117" t="s">
+        <v>31</v>
+      </c>
+      <c r="F117">
+        <v>15</v>
+      </c>
+      <c r="G117">
+        <v>0.10899996757507301</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118" t="s">
         <v>9</v>
       </c>
@@ -3133,8 +3655,17 @@
       <c r="C118">
         <v>1.46000003814697</v>
       </c>
-    </row>
-    <row r="119" spans="1:3">
+      <c r="E118" t="s">
+        <v>1</v>
+      </c>
+      <c r="F118" t="s">
+        <v>2</v>
+      </c>
+      <c r="G118" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
       <c r="A119" t="s">
         <v>10</v>
       </c>
@@ -3144,8 +3675,17 @@
       <c r="C119">
         <v>0.79500007629394498</v>
       </c>
-    </row>
-    <row r="120" spans="1:3">
+      <c r="E119" t="s">
+        <v>27</v>
+      </c>
+      <c r="F119">
+        <v>50</v>
+      </c>
+      <c r="G119">
+        <v>8.9999914169311496E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120" t="s">
         <v>11</v>
       </c>
@@ -3155,8 +3695,17 @@
       <c r="C120">
         <v>0.14100003242492601</v>
       </c>
-    </row>
-    <row r="121" spans="1:3">
+      <c r="E120" t="s">
+        <v>28</v>
+      </c>
+      <c r="F120">
+        <v>95</v>
+      </c>
+      <c r="G120">
+        <v>0.61300015449523904</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
       <c r="A121" t="s">
         <v>12</v>
       </c>
@@ -3166,8 +3715,17 @@
       <c r="C121">
         <v>0.50699996948242099</v>
       </c>
-    </row>
-    <row r="122" spans="1:3">
+      <c r="E121" t="s">
+        <v>29</v>
+      </c>
+      <c r="F121">
+        <v>37</v>
+      </c>
+      <c r="G121">
+        <v>0.62800002098083496</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
       <c r="A122" t="s">
         <v>13</v>
       </c>
@@ -3177,8 +3735,17 @@
       <c r="C122">
         <v>9.4000101089477497E-2</v>
       </c>
-    </row>
-    <row r="123" spans="1:3">
+      <c r="E122" t="s">
+        <v>30</v>
+      </c>
+      <c r="F122">
+        <v>35</v>
+      </c>
+      <c r="G122">
+        <v>0.59200000762939398</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
       <c r="A123" t="s">
         <v>1</v>
       </c>
@@ -3188,8 +3755,17 @@
       <c r="C123" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="124" spans="1:3">
+      <c r="E123" t="s">
+        <v>31</v>
+      </c>
+      <c r="F123">
+        <v>38</v>
+      </c>
+      <c r="G123">
+        <v>9.4000101089477497E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
       <c r="A124" t="s">
         <v>4</v>
       </c>
@@ -3199,8 +3775,17 @@
       <c r="C124">
         <v>0.46499991416931102</v>
       </c>
-    </row>
-    <row r="125" spans="1:3">
+      <c r="E124" t="s">
+        <v>1</v>
+      </c>
+      <c r="F124" t="s">
+        <v>2</v>
+      </c>
+      <c r="G124" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
       <c r="A125" t="s">
         <v>5</v>
       </c>
@@ -3210,8 +3795,17 @@
       <c r="C125">
         <v>0.53500008583068803</v>
       </c>
-    </row>
-    <row r="126" spans="1:3">
+      <c r="E125" t="s">
+        <v>27</v>
+      </c>
+      <c r="F125">
+        <v>100</v>
+      </c>
+      <c r="G125">
+        <v>7.8000068664550698E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
       <c r="A126" t="s">
         <v>6</v>
       </c>
@@ -3221,8 +3815,17 @@
       <c r="C126">
         <v>0.363999843597412</v>
       </c>
-    </row>
-    <row r="127" spans="1:3">
+      <c r="E126" t="s">
+        <v>28</v>
+      </c>
+      <c r="F126">
+        <v>100</v>
+      </c>
+      <c r="G126">
+        <v>0.60899996757507302</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
       <c r="A127" t="s">
         <v>7</v>
       </c>
@@ -3232,8 +3835,17 @@
       <c r="C127">
         <v>0.382999897003173</v>
       </c>
-    </row>
-    <row r="128" spans="1:3">
+      <c r="E127" t="s">
+        <v>29</v>
+      </c>
+      <c r="F127">
+        <v>100</v>
+      </c>
+      <c r="G127">
+        <v>1.17000007629394</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
       <c r="A128" t="s">
         <v>8</v>
       </c>
@@ -3243,8 +3855,17 @@
       <c r="C128">
         <v>0.13599991798400801</v>
       </c>
-    </row>
-    <row r="129" spans="1:3">
+      <c r="E128" t="s">
+        <v>30</v>
+      </c>
+      <c r="F128">
+        <v>100</v>
+      </c>
+      <c r="G128">
+        <v>0.97699999809265103</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
       <c r="A129" t="s">
         <v>9</v>
       </c>
@@ -3254,8 +3875,17 @@
       <c r="C129">
         <v>1.4840002059936499</v>
       </c>
-    </row>
-    <row r="130" spans="1:3">
+      <c r="E129" t="s">
+        <v>31</v>
+      </c>
+      <c r="F129">
+        <v>100</v>
+      </c>
+      <c r="G129">
+        <v>0.19400000572204501</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
       <c r="A130" t="s">
         <v>10</v>
       </c>
@@ -3266,7 +3896,7 @@
         <v>0.81299996376037598</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:7">
       <c r="A131" t="s">
         <v>11</v>
       </c>
@@ -3277,7 +3907,7 @@
         <v>0.12700009346008301</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:7">
       <c r="A132" t="s">
         <v>12</v>
       </c>
@@ -3288,7 +3918,7 @@
         <v>0.48599982261657698</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:7">
       <c r="A133" t="s">
         <v>13</v>
       </c>
@@ -3299,7 +3929,7 @@
         <v>0.11000013351440401</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:7">
       <c r="A134" t="s">
         <v>1</v>
       </c>
@@ -3310,7 +3940,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:7">
       <c r="A135" t="s">
         <v>4</v>
       </c>
@@ -3321,7 +3951,7 @@
         <v>0.478999853134155</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:7">
       <c r="A136" t="s">
         <v>5</v>
       </c>
@@ -3332,7 +3962,7 @@
         <v>0.52300000190734797</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:7">
       <c r="A137" t="s">
         <v>6</v>
       </c>
@@ -3343,7 +3973,7 @@
         <v>0.48799991607665999</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:7">
       <c r="A138" t="s">
         <v>7</v>
       </c>
@@ -3354,7 +3984,7 @@
         <v>0.53200006484985296</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:7">
       <c r="A139" t="s">
         <v>8</v>
       </c>
@@ -3365,7 +3995,7 @@
         <v>0.187000036239624</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:7">
       <c r="A140" t="s">
         <v>9</v>
       </c>
@@ -3376,7 +4006,7 @@
         <v>1.87599992752075</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:7">
       <c r="A141" t="s">
         <v>10</v>
       </c>
@@ -3387,7 +4017,7 @@
         <v>0.79199981689453103</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:7">
       <c r="A142" t="s">
         <v>11</v>
       </c>
@@ -3398,7 +4028,7 @@
         <v>0.12599992752075101</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:7">
       <c r="A143" t="s">
         <v>12</v>
       </c>
@@ -3409,7 +4039,7 @@
         <v>0.50600004196166903</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:7">
       <c r="A144" t="s">
         <v>13</v>
       </c>
